--- a/空运最新链接.xlsx
+++ b/空运最新链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11670"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="537">
   <si>
     <t>AA</t>
   </si>
@@ -2377,6 +2377,27 @@
   </si>
   <si>
     <t>香港货运航空</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>新加链接</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>http://cargo.juneyaoair.com/#</t>
+  </si>
+  <si>
+    <t>修改链接</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>https://www.olympicair.com/en/Info/Cargo</t>
   </si>
 </sst>
 </file>
@@ -2384,15 +2405,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2438,8 +2466,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2447,9 +2476,62 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2460,22 +2542,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2490,18 +2566,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2520,60 +2596,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2613,7 +2642,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2625,31 +2690,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2667,49 +2762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2721,31 +2780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2763,31 +2810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2798,6 +2827,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2816,7 +2899,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2836,60 +2919,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2906,10 +2935,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2918,137 +2947,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3056,6 +3085,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3070,43 +3102,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3118,33 +3150,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3154,20 +3183,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3176,10 +3205,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3550,1242 +3585,1242 @@
   <sheetPr/>
   <dimension ref="A2:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B86" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="19" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19" style="4" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="71.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="J2" s="27" t="s">
+      <c r="F2" s="9"/>
+      <c r="J2" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="J3" s="27" t="s">
+      <c r="F3" s="9"/>
+      <c r="J3" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="J4" s="27" t="s">
+      <c r="F4" s="9"/>
+      <c r="J4" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:10">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="J5" s="27" t="s">
+      <c r="F5" s="9"/>
+      <c r="J5" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:10">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="J6" s="27" t="s">
+      <c r="F6" s="9"/>
+      <c r="J6" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:10">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="J7" s="27" t="s">
+      <c r="F7" s="9"/>
+      <c r="J7" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:10">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="J14" s="27" t="s">
+      <c r="F14" s="9"/>
+      <c r="J14" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:10">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="12" t="s">
         <v>89</v>
       </c>
       <c r="G18" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" ht="14.25" spans="1:10">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="J20" s="27" t="s">
+      <c r="F20" s="9"/>
+      <c r="J20" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="16"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" ht="14.25" spans="1:10">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="J31" s="27" t="s">
+      <c r="F31" s="9"/>
+      <c r="J31" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="9" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F33" s="8"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="8"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F36" s="8"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" ht="23" customHeight="1" spans="1:10">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="J38" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="8"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="8"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F41" s="8"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="K43" s="28" t="s">
+      <c r="K43" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="8"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:6">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="23" t="s">
+      <c r="D45" s="23"/>
+      <c r="E45" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="25" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="F46" s="8"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" ht="27" spans="1:6">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="F47" s="8"/>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" ht="14.25" spans="1:10">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="J48" s="27" t="s">
+      <c r="J48" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="F49" s="8"/>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="F50" s="8"/>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="F51" s="8"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="F52" s="8"/>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="F53" s="8"/>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="F54" s="8"/>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" ht="19" customHeight="1" spans="1:6">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="8" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="F56" s="8"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="F57" s="8"/>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="F58" s="8"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="F59" s="8"/>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" ht="24" customHeight="1" spans="1:6">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="9" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:10">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="J62" s="27" t="s">
+      <c r="F62" s="9"/>
+      <c r="J62" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" ht="27" spans="1:6">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="F63" s="8"/>
+      <c r="F63" s="9"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="F64" s="8"/>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:6">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="21" t="s">
         <v>325</v>
       </c>
       <c r="D65" s="29" t="s">
@@ -4794,286 +4829,286 @@
       <c r="E65" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="F65" s="24"/>
+      <c r="F65" s="25"/>
     </row>
     <row r="66" ht="18" customHeight="1" spans="1:6">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="F66" s="8"/>
+      <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="F67" s="8"/>
+      <c r="F67" s="9"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="F68" s="8"/>
+      <c r="F68" s="9"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="F69" s="8"/>
+      <c r="F69" s="9"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="9" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="F71" s="8"/>
+      <c r="F71" s="9"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="4" t="s">
+      <c r="B72" s="6"/>
+      <c r="C72" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="7" t="s">
         <v>361</v>
       </c>
       <c r="E72" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="9" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="73" ht="14.25" spans="1:10">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="11" t="s">
         <v>367</v>
       </c>
       <c r="E73" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="F73" s="8"/>
-      <c r="J73" s="27" t="s">
+      <c r="F73" s="9"/>
+      <c r="J73" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="74" ht="16" customHeight="1" spans="1:6">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="D74" s="26" t="s">
         <v>372</v>
       </c>
       <c r="E74" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="F74" s="8"/>
+      <c r="F74" s="9"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="F75" s="8"/>
+      <c r="F75" s="9"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="9" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="F77" s="8"/>
+      <c r="F77" s="9"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="9" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E79" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="F79" s="8"/>
+      <c r="F79" s="9"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E80" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="F80" s="8"/>
+      <c r="F80" s="9"/>
     </row>
     <row r="81" s="2" customFormat="1" spans="1:6">
       <c r="A81" s="34" t="s">
@@ -5094,224 +5129,224 @@
       <c r="F81" s="38"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="9" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="E83" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="F83" s="8"/>
+      <c r="F83" s="9"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="9" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="85" ht="27" spans="1:10">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="E85" s="17" t="s">
+      <c r="E85" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="J85" s="27" t="s">
+      <c r="J85" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="F86" s="8"/>
+      <c r="F86" s="9"/>
     </row>
     <row r="87" ht="15" customHeight="1" spans="1:6">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="F87" s="8"/>
+      <c r="F87" s="9"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="9" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:10">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="7" t="s">
         <v>449</v>
       </c>
       <c r="E89" s="39" t="s">
         <v>450</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="J89" s="27" t="s">
+      <c r="J89" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="E90" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="9" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="91" ht="14.25" spans="1:10">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="11" t="s">
         <v>458</v>
       </c>
       <c r="E91" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="F91" s="8"/>
-      <c r="J91" s="27" t="s">
+      <c r="F91" s="9"/>
+      <c r="J91" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:10">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="E92" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="F92" s="8"/>
-      <c r="J92" s="27" t="s">
+      <c r="F92" s="9"/>
+      <c r="J92" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5354,41 +5389,41 @@
       <c r="F94" s="38"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="F95" s="8"/>
+      <c r="F95" s="9"/>
     </row>
     <row r="96" ht="14.25" spans="1:10">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="E96" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="F96" s="8"/>
-      <c r="J96" s="27" t="s">
+      <c r="F96" s="9"/>
+      <c r="J96" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5411,125 +5446,125 @@
       <c r="F97" s="38"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="7" t="s">
+      <c r="D98" s="7"/>
+      <c r="E98" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="9" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="F99" s="8"/>
+      <c r="F99" s="9"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="F100" s="8"/>
+      <c r="F100" s="9"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="9" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="E102" s="19" t="s">
+      <c r="E102" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="F102" s="8"/>
+      <c r="F102" s="9"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="9" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:10">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="5" t="s">
         <v>521</v>
       </c>
       <c r="D104" s="42" t="s">
@@ -5538,10 +5573,10 @@
       <c r="E104" t="s">
         <v>523</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="J104" s="27" t="s">
+      <c r="J104" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5555,33 +5590,72 @@
       <c r="C105" s="43" t="s">
         <v>527</v>
       </c>
-      <c r="D105" s="6"/>
+      <c r="D105" s="7"/>
       <c r="E105" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="J105" s="27" t="s">
+      <c r="J105" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="106" ht="14.25" spans="1:10">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="4">
         <v>828</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="4" t="s">
         <v>529</v>
       </c>
       <c r="E106" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="J106" s="27" t="s">
+      <c r="J106" s="28" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="107" s="3" customFormat="1" spans="1:6">
+      <c r="A107" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C107" s="47"/>
+      <c r="E107" s="48" t="s">
+        <v>508</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="108" s="3" customFormat="1" spans="1:6">
+      <c r="A108" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C108" s="47"/>
+      <c r="E108" s="48" t="s">
+        <v>533</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="109" s="3" customFormat="1" spans="1:6">
+      <c r="A109" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B109" s="47">
+        <v>50</v>
+      </c>
+      <c r="C109" s="47"/>
+      <c r="E109" s="48" t="s">
+        <v>536</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
     <row r="112" spans="4:4">
-      <c r="D112" s="3"/>
+      <c r="D112" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5692,6 +5766,9 @@
     <hyperlink ref="E5" r:id="rId99" display="https://www.unitedcargo.com/"/>
     <hyperlink ref="E92" r:id="rId42" display="https://www.hkaircargo.com/sc/"/>
     <hyperlink ref="E106" r:id="rId42" display="https://www.hkaircargo.com/sc/" tooltip="https://www.hkaircargo.com/sc/"/>
+    <hyperlink ref="E107" r:id="rId84" display="http://www.datacair.com/tracktrace/index.php"/>
+    <hyperlink ref="E108" r:id="rId100" display="http://cargo.juneyaoair.com/#" tooltip="http://cargo.juneyaoair.com/#"/>
+    <hyperlink ref="E109" r:id="rId101" display="https://www.olympicair.com/en/Info/Cargo" tooltip="https://www.olympicair.com/en/Info/Cargo"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/空运最新链接.xlsx
+++ b/空运最新链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="549">
   <si>
     <t>AA</t>
   </si>
@@ -221,6 +221,15 @@
     <t>http://cargo.aerolineas.com.ar/es-ar</t>
   </si>
   <si>
+    <t>官网链接</t>
+  </si>
+  <si>
+    <t>http://cargo.aerolineas.com.ar/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳转链接https://www.cargoupdate.com/tracktrace/ </t>
+  </si>
+  <si>
     <t>CY</t>
   </si>
   <si>
@@ -603,6 +612,10 @@
   </si>
   <si>
     <t>https://prdcgoay.mercator.com/skychain/app?service=page/nwp:Trackshipmt</t>
+  </si>
+  <si>
+    <t>链接修改
+（同左）</t>
   </si>
   <si>
     <t>BW</t>
@@ -1123,6 +1136,9 @@
     <t>http://www.anacargo.jp/en/int/index.html</t>
   </si>
   <si>
+    <t>修改链接  http://www.anacargo.jp/en/int</t>
+  </si>
+  <si>
     <t>PK</t>
   </si>
   <si>
@@ -1496,16 +1512,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>运单号：</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
@@ -1514,6 +1526,12 @@
   </si>
   <si>
     <t>http://www.silkwaywest.com/home/</t>
+  </si>
+  <si>
+    <t>链接修改</t>
+  </si>
+  <si>
+    <t>http://www.silkwaywest.com/</t>
   </si>
   <si>
     <t>SU</t>
@@ -1866,6 +1884,12 @@
     <t>http://ecargo.xiamenair.com/Pindex.aspx</t>
   </si>
   <si>
+    <t>更新链接</t>
+  </si>
+  <si>
+    <t>https://cargo.xiamenair.com/Cargo/English/Search.html</t>
+  </si>
+  <si>
     <t>VN</t>
   </si>
   <si>
@@ -2136,6 +2160,10 @@
     <t>http://cargoitran.yzr.com.cn/SearchFlight/QueryAWB.aspx?Pre=871&amp;No=11453492</t>
   </si>
   <si>
+    <t xml:space="preserve">链接更新 https://www.hnacargo.com/Portal2/AwbSearch.aspx
+</t>
+  </si>
+  <si>
     <t>3U</t>
   </si>
   <si>
@@ -2301,6 +2329,9 @@
     <t>http://www.datacair.com/tracktrace/index.php</t>
   </si>
   <si>
+    <t>修改链接 https://www.cargoupdate.com/tracktrace/</t>
+  </si>
+  <si>
     <t>OZ</t>
   </si>
   <si>
@@ -2398,6 +2429,9 @@
   </si>
   <si>
     <t>https://www.olympicair.com/en/Info/Cargo</t>
+  </si>
+  <si>
+    <t>HM  http://www.cargoserv.com/tracking.asp?Carrier=HM&amp;Pfx=061</t>
   </si>
 </sst>
 </file>
@@ -2405,12 +2439,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2449,6 +2483,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2466,6 +2508,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2474,9 +2522,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2497,8 +2558,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2506,17 +2591,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2535,29 +2620,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2567,7 +2629,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2582,29 +2644,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2614,13 +2654,25 @@
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2642,25 +2694,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2672,19 +2724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2696,85 +2736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2792,7 +2760,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2804,7 +2802,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2816,7 +2862,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2827,6 +2885,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2845,15 +2918,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2865,6 +2929,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2903,30 +2985,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2935,10 +2993,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2947,16 +3005,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2968,123 +3026,135 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3120,17 +3190,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3141,62 +3250,101 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="10" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3214,7 +3362,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3308,7 +3456,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10123805" y="9039225"/>
+          <a:off x="10123805" y="9210675"/>
           <a:ext cx="553720" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3585,2077 +3733,2121 @@
   <sheetPr/>
   <dimension ref="A2:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D46" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="19" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19" style="8" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="71.625" customWidth="1"/>
+    <col min="7" max="7" width="42.7833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="J2" s="28" t="s">
+      <c r="F2" s="13"/>
+      <c r="J2" s="50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="J3" s="28" t="s">
+      <c r="F3" s="13"/>
+      <c r="J3" s="50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="J4" s="28" t="s">
+      <c r="F4" s="13"/>
+      <c r="J4" s="50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="J5" s="28" t="s">
+      <c r="F5" s="13"/>
+      <c r="J5" s="50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:10">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="J6" s="28" t="s">
+      <c r="F6" s="13"/>
+      <c r="J6" s="50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:10">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="J7" s="28" t="s">
+      <c r="F7" s="13"/>
+      <c r="J7" s="50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
+    <row r="10" s="1" customFormat="1" spans="1:8">
+      <c r="A10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="F10" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="G10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="H10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="7" t="s">
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:6">
+      <c r="A11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="B11" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="C11" s="24" t="s">
         <v>53</v>
       </c>
+      <c r="D11" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:10">
+      <c r="A14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="J14" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" ht="16" customHeight="1" spans="1:10">
+      <c r="A18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:10">
+      <c r="A20" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="J20" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:6">
+      <c r="A27" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A28" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:6">
+      <c r="A29" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:10">
+      <c r="A31" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="J31" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" ht="23" customHeight="1" spans="1:10">
+      <c r="A38" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="J38" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" s="3" customFormat="1" spans="1:6">
+      <c r="A45" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="40"/>
+      <c r="E45" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" ht="27" spans="1:6">
+      <c r="A47" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" ht="14.25" spans="1:10">
+      <c r="A48" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J48" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" s="4" customFormat="1" spans="1:7">
+      <c r="A51" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="E51" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="F51" s="47"/>
+      <c r="G51" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" ht="19" customHeight="1" spans="1:6">
+      <c r="A55" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E57" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E58" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E59" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" ht="24" customHeight="1" spans="1:6">
+      <c r="A60" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" spans="1:10">
+      <c r="A62" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="J62" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" ht="27" spans="1:6">
+      <c r="A63" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E63" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="E64" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="1:6">
+      <c r="A65" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="D65" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="E65" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="F65" s="42"/>
+    </row>
+    <row r="66" ht="18" customHeight="1" spans="1:6">
+      <c r="A66" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="E66" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E67" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" s="5" customFormat="1" spans="1:7">
+      <c r="A68" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="B68" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="C68" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="D68" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="E68" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="F68" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="G68" s="58" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="E70" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="E71" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E72" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" spans="1:10">
+      <c r="A73" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="E73" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="F73" s="13"/>
+      <c r="J73" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" ht="16" customHeight="1" spans="1:6">
+      <c r="A74" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D74" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="E74" s="61" t="s">
+        <v>380</v>
+      </c>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="E75" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="E76" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="E77" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="E78" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E79" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="F79" s="13"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="E80" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" s="4" customFormat="1" spans="1:6">
+      <c r="A81" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="B81" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="E81" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="F81" s="47"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="83" s="6" customFormat="1" spans="1:7">
+      <c r="A83" s="62" t="s">
+        <v>421</v>
+      </c>
+      <c r="B83" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="C83" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="D83" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="E83" s="65" t="s">
+        <v>425</v>
+      </c>
+      <c r="F83" s="66" t="s">
+        <v>426</v>
+      </c>
+      <c r="G83" s="67" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="85" ht="27" spans="1:10">
+      <c r="A85" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E85" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="J85" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="E86" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="F86" s="13"/>
+    </row>
+    <row r="87" ht="15" customHeight="1" spans="1:6">
+      <c r="A87" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="F87" s="13"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" spans="1:10">
+      <c r="A89" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E89" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="J89" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E90" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" spans="1:10">
+      <c r="A91" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="E91" s="68" t="s">
+        <v>468</v>
+      </c>
+      <c r="F91" s="13"/>
+      <c r="J91" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" spans="1:10">
+      <c r="A92" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E92" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="F92" s="13"/>
+      <c r="J92" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" s="4" customFormat="1" ht="24" customHeight="1" spans="1:6">
+      <c r="A93" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="C93" s="43" t="s">
+        <v>475</v>
+      </c>
+      <c r="D93" s="45" t="s">
+        <v>476</v>
+      </c>
+      <c r="E93" s="69" t="s">
+        <v>477</v>
+      </c>
+      <c r="F93" s="47" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" s="4" customFormat="1" ht="108" spans="1:6">
+      <c r="A94" s="43" t="s">
+        <v>478</v>
+      </c>
+      <c r="B94" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="D94" s="70" t="s">
+        <v>481</v>
+      </c>
+      <c r="E94" s="69" t="s">
+        <v>482</v>
+      </c>
+      <c r="F94" s="71" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="F95" s="13"/>
+    </row>
+    <row r="96" ht="14.25" spans="1:10">
+      <c r="A96" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E96" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="F96" s="13"/>
+      <c r="J96" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" s="4" customFormat="1" spans="1:6">
+      <c r="A97" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="B97" s="44" t="s">
+        <v>495</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="D97" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="E97" s="69" t="s">
+        <v>498</v>
+      </c>
+      <c r="F97" s="47"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D98" s="11"/>
+      <c r="E98" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="F99" s="13"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="F100" s="13"/>
+    </row>
+    <row r="101" s="2" customFormat="1" spans="1:7">
+      <c r="A101" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="E101" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="F101" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="E102" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="F102" s="13"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" spans="1:10">
+      <c r="A104" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="D104" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="E104" t="s">
+        <v>534</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="J104" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" spans="1:10">
+      <c r="A105" s="73" t="s">
+        <v>536</v>
+      </c>
+      <c r="B105" s="74" t="s">
+        <v>537</v>
+      </c>
+      <c r="C105" s="73" t="s">
+        <v>538</v>
+      </c>
+      <c r="D105" s="11"/>
+      <c r="E105" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="J105" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" spans="1:10">
+      <c r="A106" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B106" s="8">
+        <v>828</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E106" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="J106" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" s="7" customFormat="1" spans="1:6">
+      <c r="A107" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C107" s="77"/>
+      <c r="E107" s="78" t="s">
+        <v>518</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="108" s="7" customFormat="1" spans="1:6">
+      <c r="A108" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="C108" s="77"/>
+      <c r="E108" s="78" t="s">
+        <v>544</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="109" s="7" customFormat="1" spans="1:6">
+      <c r="A109" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B109" s="77">
+        <v>50</v>
+      </c>
+      <c r="C109" s="77"/>
+      <c r="E109" s="78" t="s">
+        <v>547</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="110" s="7" customFormat="1" spans="1:6">
+      <c r="A110" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" s="7">
         <v>61</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="J14" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" ht="16" customHeight="1" spans="1:10">
-      <c r="A18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:10">
-      <c r="A20" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="J20" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:10">
-      <c r="A31" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="J31" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" ht="23" customHeight="1" spans="1:10">
-      <c r="A38" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="J38" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:6">
-      <c r="A45" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" ht="27" spans="1:6">
-      <c r="A47" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" ht="14.25" spans="1:10">
-      <c r="A48" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="J48" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="F50" s="9"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F51" s="9"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="F52" s="9"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="F53" s="9"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" ht="19" customHeight="1" spans="1:6">
-      <c r="A55" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="F56" s="9"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="F57" s="9"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="F59" s="9"/>
-    </row>
-    <row r="60" ht="24" customHeight="1" spans="1:6">
-      <c r="A60" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" spans="1:10">
-      <c r="A62" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="J62" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" ht="27" spans="1:6">
-      <c r="A63" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="F63" s="9"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="F64" s="9"/>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="1:6">
-      <c r="A65" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="F65" s="25"/>
-    </row>
-    <row r="66" ht="18" customHeight="1" spans="1:6">
-      <c r="A66" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="F66" s="9"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="F68" s="9"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="F69" s="9"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="F71" s="9"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" spans="1:10">
-      <c r="A73" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="E73" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="F73" s="9"/>
-      <c r="J73" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" ht="16" customHeight="1" spans="1:6">
-      <c r="A74" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="E74" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="F74" s="9"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="F75" s="9"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F77" s="9"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="F79" s="9"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="F80" s="9"/>
-    </row>
-    <row r="81" s="2" customFormat="1" spans="1:6">
-      <c r="A81" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="B81" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="C81" s="34" t="s">
-        <v>406</v>
-      </c>
-      <c r="D81" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="E81" s="37" t="s">
-        <v>407</v>
-      </c>
-      <c r="F81" s="38"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="F83" s="9"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="85" ht="27" spans="1:10">
-      <c r="A85" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="J85" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E86" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="F86" s="9"/>
-    </row>
-    <row r="87" ht="15" customHeight="1" spans="1:6">
-      <c r="A87" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="F87" s="9"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" spans="1:10">
-      <c r="A89" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="E89" s="39" t="s">
-        <v>450</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="J89" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="E90" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="91" ht="14.25" spans="1:10">
-      <c r="A91" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="E91" s="39" t="s">
-        <v>459</v>
-      </c>
-      <c r="F91" s="9"/>
-      <c r="J91" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" spans="1:10">
-      <c r="A92" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="E92" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F92" s="9"/>
-      <c r="J92" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" s="2" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A93" s="34" t="s">
-        <v>464</v>
-      </c>
-      <c r="B93" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="C93" s="34" t="s">
-        <v>466</v>
-      </c>
-      <c r="D93" s="36" t="s">
-        <v>467</v>
-      </c>
-      <c r="E93" s="40" t="s">
-        <v>468</v>
-      </c>
-      <c r="F93" s="38" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="94" s="2" customFormat="1" spans="1:6">
-      <c r="A94" s="34" t="s">
-        <v>469</v>
-      </c>
-      <c r="B94" s="35" t="s">
-        <v>470</v>
-      </c>
-      <c r="C94" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="D94" s="41" t="s">
-        <v>472</v>
-      </c>
-      <c r="E94" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="F94" s="38"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="F95" s="9"/>
-    </row>
-    <row r="96" ht="14.25" spans="1:10">
-      <c r="A96" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="E96" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="F96" s="9"/>
-      <c r="J96" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" s="2" customFormat="1" spans="1:6">
-      <c r="A97" s="34" t="s">
-        <v>484</v>
-      </c>
-      <c r="B97" s="35" t="s">
-        <v>485</v>
-      </c>
-      <c r="C97" s="34" t="s">
-        <v>486</v>
-      </c>
-      <c r="D97" s="36" t="s">
-        <v>487</v>
-      </c>
-      <c r="E97" s="40" t="s">
-        <v>488</v>
-      </c>
-      <c r="F97" s="38"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="D98" s="7"/>
-      <c r="E98" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="F99" s="9"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="F100" s="9"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="E102" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="F102" s="9"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="104" ht="14.25" spans="1:10">
-      <c r="A104" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="D104" s="42" t="s">
-        <v>522</v>
-      </c>
-      <c r="E104" t="s">
-        <v>523</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="J104" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25" spans="1:10">
-      <c r="A105" s="43" t="s">
-        <v>525</v>
-      </c>
-      <c r="B105" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="C105" s="43" t="s">
-        <v>527</v>
-      </c>
-      <c r="D105" s="7"/>
-      <c r="E105" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="J105" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" ht="14.25" spans="1:10">
-      <c r="A106" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="B106" s="4">
-        <v>828</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="E106" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="J106" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" s="3" customFormat="1" spans="1:6">
-      <c r="A107" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C107" s="47"/>
-      <c r="E107" s="48" t="s">
-        <v>508</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="108" s="3" customFormat="1" spans="1:6">
-      <c r="A108" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="C108" s="47"/>
-      <c r="E108" s="48" t="s">
-        <v>533</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="109" s="3" customFormat="1" spans="1:6">
-      <c r="A109" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="B109" s="47">
-        <v>50</v>
-      </c>
-      <c r="C109" s="47"/>
-      <c r="E109" s="48" t="s">
-        <v>536</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>531</v>
+      <c r="C110" s="77"/>
+      <c r="E110" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="112" spans="4:4">
-      <c r="D112" s="4"/>
+      <c r="D112" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5769,6 +5961,9 @@
     <hyperlink ref="E107" r:id="rId84" display="http://www.datacair.com/tracktrace/index.php"/>
     <hyperlink ref="E108" r:id="rId100" display="http://cargo.juneyaoair.com/#" tooltip="http://cargo.juneyaoair.com/#"/>
     <hyperlink ref="E109" r:id="rId101" display="https://www.olympicair.com/en/Info/Cargo" tooltip="https://www.olympicair.com/en/Info/Cargo"/>
+    <hyperlink ref="G83" r:id="rId102" display="https://cargo.xiamenair.com/Cargo/English/Search.html"/>
+    <hyperlink ref="G10" r:id="rId103" display="http://cargo.aerolineas.com.ar/" tooltip="http://cargo.aerolineas.com.ar/"/>
+    <hyperlink ref="G68" r:id="rId104" display="http://www.silkwaywest.com/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/空运最新链接.xlsx
+++ b/空运最新链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="550">
   <si>
     <t>AA</t>
   </si>
@@ -1512,6 +1512,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>运单号：</t>
     </r>
     <r>
@@ -1983,6 +1989,12 @@
     <t>http://tang.cs-air.com/EN/WebFace/Tang.WebFace.Cargo/AgentAwbBrower.aspx</t>
   </si>
   <si>
+    <t>修改链接</t>
+  </si>
+  <si>
+    <t>http://tang.csair.com/EN/WebFace/Tang.WebFace.Cargo/AgentAwbBrower.aspx?lan=en-us</t>
+  </si>
+  <si>
     <t>AE</t>
   </si>
   <si>
@@ -2420,9 +2432,6 @@
   </si>
   <si>
     <t>http://cargo.juneyaoair.com/#</t>
-  </si>
-  <si>
-    <t>修改链接</t>
   </si>
   <si>
     <t>OA</t>
@@ -2439,10 +2448,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -2523,27 +2532,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2558,32 +2546,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2591,17 +2555,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2620,6 +2584,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2629,7 +2616,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2638,6 +2625,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2700,7 +2709,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2712,13 +2757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2730,13 +2769,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2748,19 +2865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2772,109 +2877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2885,21 +2894,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2918,6 +2912,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2929,24 +2932,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2985,6 +2970,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2993,10 +3002,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3005,137 +3014,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3334,6 +3343,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3354,9 +3369,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3733,8 +3745,8 @@
   <sheetPr/>
   <dimension ref="A2:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D46" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B65" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5381,7 +5393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:7">
       <c r="A86" s="9" t="s">
         <v>439</v>
       </c>
@@ -5397,61 +5409,66 @@
       <c r="E86" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="F86" s="13"/>
+      <c r="F86" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G86" s="69" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="87" ht="15" customHeight="1" spans="1:6">
       <c r="A87" s="9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F87" s="13"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="9" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:10">
       <c r="A89" s="9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="E89" s="68" t="s">
-        <v>459</v>
+        <v>460</v>
+      </c>
+      <c r="E89" s="70" t="s">
+        <v>461</v>
       </c>
       <c r="F89" s="13" t="s">
         <v>400</v>
@@ -5462,19 +5479,19 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="9" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E90" s="37" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F90" s="13" t="s">
         <v>400</v>
@@ -5482,19 +5499,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:10">
       <c r="A91" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="E91" s="68" t="s">
-        <v>468</v>
+        <v>469</v>
+      </c>
+      <c r="E91" s="70" t="s">
+        <v>470</v>
       </c>
       <c r="F91" s="13"/>
       <c r="J91" s="50" t="s">
@@ -5503,16 +5520,16 @@
     </row>
     <row r="92" ht="14.25" spans="1:10">
       <c r="A92" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E92" s="37" t="s">
         <v>276</v>
@@ -5524,19 +5541,19 @@
     </row>
     <row r="93" s="4" customFormat="1" ht="24" customHeight="1" spans="1:6">
       <c r="A93" s="43" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C93" s="43" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>476</v>
-      </c>
-      <c r="E93" s="69" t="s">
-        <v>477</v>
+        <v>478</v>
+      </c>
+      <c r="E93" s="71" t="s">
+        <v>479</v>
       </c>
       <c r="F93" s="47" t="s">
         <v>194</v>
@@ -5544,57 +5561,57 @@
     </row>
     <row r="94" s="4" customFormat="1" ht="108" spans="1:6">
       <c r="A94" s="43" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="D94" s="70" t="s">
-        <v>481</v>
-      </c>
-      <c r="E94" s="69" t="s">
         <v>482</v>
       </c>
-      <c r="F94" s="71" t="s">
+      <c r="D94" s="72" t="s">
         <v>483</v>
+      </c>
+      <c r="E94" s="71" t="s">
+        <v>484</v>
+      </c>
+      <c r="F94" s="73" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F95" s="13"/>
     </row>
     <row r="96" ht="14.25" spans="1:10">
       <c r="A96" s="9" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E96" s="37" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F96" s="13"/>
       <c r="J96" s="50" t="s">
@@ -5603,132 +5620,132 @@
     </row>
     <row r="97" s="4" customFormat="1" spans="1:6">
       <c r="A97" s="43" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>497</v>
-      </c>
-      <c r="E97" s="69" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="E97" s="71" t="s">
+        <v>500</v>
       </c>
       <c r="F97" s="47"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="12" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F99" s="13"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="9" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F100" s="13"/>
     </row>
     <row r="101" s="2" customFormat="1" spans="1:7">
       <c r="A101" s="24" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F101" s="28" t="s">
         <v>360</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E102" s="37" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F102" s="13"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F103" s="13" t="s">
         <v>360</v>
@@ -5736,39 +5753,39 @@
     </row>
     <row r="104" ht="14.25" spans="1:10">
       <c r="A104" s="9" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="D104" s="72" t="s">
-        <v>533</v>
+        <v>534</v>
+      </c>
+      <c r="D104" s="74" t="s">
+        <v>535</v>
       </c>
       <c r="E104" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J104" s="50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:10">
-      <c r="A105" s="73" t="s">
-        <v>536</v>
-      </c>
-      <c r="B105" s="74" t="s">
-        <v>537</v>
-      </c>
-      <c r="C105" s="73" t="s">
+      <c r="A105" s="75" t="s">
         <v>538</v>
       </c>
+      <c r="B105" s="76" t="s">
+        <v>539</v>
+      </c>
+      <c r="C105" s="75" t="s">
+        <v>540</v>
+      </c>
       <c r="D105" s="11"/>
-      <c r="E105" s="75" t="s">
+      <c r="E105" s="77" t="s">
         <v>92</v>
       </c>
       <c r="J105" s="50" t="s">
@@ -5777,15 +5794,15 @@
     </row>
     <row r="106" ht="14.25" spans="1:10">
       <c r="A106" s="8" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B106" s="8">
         <v>828</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="E106" s="76" t="s">
+        <v>542</v>
+      </c>
+      <c r="E106" s="69" t="s">
         <v>276</v>
       </c>
       <c r="J106" s="50" t="s">
@@ -5794,41 +5811,41 @@
     </row>
     <row r="107" s="7" customFormat="1" spans="1:6">
       <c r="A107" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="C107" s="77"/>
-      <c r="E107" s="78" t="s">
-        <v>518</v>
+        <v>543</v>
+      </c>
+      <c r="C107" s="78"/>
+      <c r="E107" s="79" t="s">
+        <v>520</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="108" s="7" customFormat="1" spans="1:6">
       <c r="A108" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="C108" s="77"/>
-      <c r="E108" s="78" t="s">
-        <v>544</v>
+        <v>545</v>
+      </c>
+      <c r="C108" s="78"/>
+      <c r="E108" s="79" t="s">
+        <v>546</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>545</v>
+        <v>444</v>
       </c>
     </row>
     <row r="109" s="7" customFormat="1" spans="1:6">
       <c r="A109" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="B109" s="77">
+        <v>547</v>
+      </c>
+      <c r="B109" s="78">
         <v>50</v>
       </c>
-      <c r="C109" s="77"/>
-      <c r="E109" s="78" t="s">
-        <v>547</v>
+      <c r="C109" s="78"/>
+      <c r="E109" s="79" t="s">
+        <v>548</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="110" s="7" customFormat="1" spans="1:6">
@@ -5838,12 +5855,12 @@
       <c r="B110" s="7">
         <v>61</v>
       </c>
-      <c r="C110" s="77"/>
+      <c r="C110" s="78"/>
       <c r="E110" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="112" spans="4:4">
@@ -5964,6 +5981,7 @@
     <hyperlink ref="G83" r:id="rId102" display="https://cargo.xiamenair.com/Cargo/English/Search.html"/>
     <hyperlink ref="G10" r:id="rId103" display="http://cargo.aerolineas.com.ar/" tooltip="http://cargo.aerolineas.com.ar/"/>
     <hyperlink ref="G68" r:id="rId104" display="http://www.silkwaywest.com/"/>
+    <hyperlink ref="G86" r:id="rId105" display="http://tang.csair.com/EN/WebFace/Tang.WebFace.Cargo/AgentAwbBrower.aspx?lan=en-us"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/空运最新链接.xlsx
+++ b/空运最新链接.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="555">
   <si>
     <t>AA</t>
   </si>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">https://cargo.ethiopianairlines.com/TrackCargo  </t>
   </si>
   <si>
-    <t>https://www.cargoupdate.com/tracktrace/</t>
+    <t>修改链接  https://cargo.ethiopianairlines.com/TrackCargo</t>
   </si>
   <si>
     <t>货物状态比较完整</t>
@@ -1427,6 +1427,9 @@
     <t>https://www.cargoupdate.com/tracktrace/default.aspx</t>
   </si>
   <si>
+    <t>修改链接  https://en.about.aegeanair.com/company/services/cargo/</t>
+  </si>
+  <si>
     <t>PO</t>
   </si>
   <si>
@@ -2043,6 +2046,15 @@
     <t>与CI是同一网址查询</t>
   </si>
   <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>805-13114570</t>
+  </si>
+  <si>
+    <t>https://www.mercuryamericas.com/tracking.html</t>
+  </si>
+  <si>
     <t>AK</t>
   </si>
   <si>
@@ -2414,6 +2426,9 @@
   </si>
   <si>
     <t>葡萄牙航空</t>
+  </si>
+  <si>
+    <t>https://www.cargoupdate.com/tracktrace/</t>
   </si>
   <si>
     <t xml:space="preserve">RH </t>
@@ -2448,12 +2463,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2464,6 +2479,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2532,9 +2554,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2551,111 +2678,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2709,13 +2731,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2727,43 +2755,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2781,7 +2785,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2799,25 +2833,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2829,7 +2845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2841,7 +2857,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2853,13 +2875,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2883,7 +2899,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2894,30 +2916,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2932,6 +2930,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2953,6 +2966,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2966,31 +2997,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3002,10 +3024,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3014,137 +3036,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3164,6 +3186,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3181,19 +3206,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3208,13 +3233,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3226,49 +3251,52 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3283,26 +3311,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3310,56 +3341,68 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="10" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3368,13 +3411,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3469,7 +3512,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10123805" y="9210675"/>
-          <a:ext cx="553720" cy="171450"/>
+          <a:ext cx="1045845" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3743,206 +3786,207 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K112"/>
+  <dimension ref="A2:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B65" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="19" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19" style="9" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="71.625" customWidth="1"/>
+    <col min="6" max="6" width="61.5333333333333" customWidth="1"/>
     <col min="7" max="7" width="42.7833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="J2" s="50" t="s">
+      <c r="F2" s="14"/>
+      <c r="J2" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:10">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="J3" s="50" t="s">
+      <c r="F3" s="14"/>
+      <c r="J3" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:10">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="J4" s="50" t="s">
+      <c r="F4" s="14"/>
+      <c r="J4" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:10">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="J5" s="50" t="s">
+      <c r="F5" s="14"/>
+      <c r="J5" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:10">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="J6" s="50" t="s">
+      <c r="F6" s="14"/>
+      <c r="J6" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:10">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="J7" s="50" t="s">
+      <c r="F7" s="14"/>
+      <c r="J7" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:8">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="24" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -3950,1921 +3994,1937 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:6">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:10">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="J14" s="50" t="s">
+      <c r="F14" s="14"/>
+      <c r="J14" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" ht="16" customHeight="1" spans="1:10">
-      <c r="A18" s="9" t="s">
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A18" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="53" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" ht="14.25" spans="1:10">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="J20" s="50" t="s">
+      <c r="F20" s="14"/>
+      <c r="J20" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="13"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="13"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="13"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:6">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="27" spans="1:6">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="38" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:6">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="13"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" ht="14.25" spans="1:10">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="J31" s="50" t="s">
+      <c r="F31" s="14"/>
+      <c r="J31" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="14" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="F33" s="13"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="F34" s="13"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="F36" s="13"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" ht="23" customHeight="1" spans="1:10">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="J38" s="50" t="s">
+      <c r="J38" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="F39" s="13"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="F40" s="13"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="F41" s="13"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="8" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="E44" s="37" t="s">
+      <c r="E44" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" s="3" customFormat="1" spans="1:6">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="41" t="s">
+      <c r="D45" s="42"/>
+      <c r="E45" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="F45" s="42" t="s">
+      <c r="F45" s="44" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="E46" s="37" t="s">
+      <c r="E46" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="F46" s="13"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" ht="27" spans="1:6">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="F47" s="13"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" ht="14.25" spans="1:10">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="J48" s="50" t="s">
+      <c r="J48" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F49" s="13"/>
+      <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="F50" s="13"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" s="4" customFormat="1" spans="1:7">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="D51" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="E51" s="46" t="s">
+      <c r="E51" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="F51" s="47"/>
+      <c r="F51" s="49"/>
       <c r="G51" s="4" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F52" s="13"/>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="E53" s="37" t="s">
+      <c r="E53" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="F53" s="13"/>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="F54" s="13"/>
+      <c r="F54" s="14"/>
     </row>
     <row r="55" ht="19" customHeight="1" spans="1:6">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="13" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D56" s="48" t="s">
+      <c r="D56" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="F56" s="13"/>
+      <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="E57" s="37" t="s">
+      <c r="E57" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="F57" s="13"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="E58" s="37" t="s">
+      <c r="E58" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="F58" s="13"/>
+      <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="E59" s="37" t="s">
+      <c r="E59" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="F59" s="13"/>
+      <c r="F59" s="14"/>
     </row>
     <row r="60" ht="24" customHeight="1" spans="1:6">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="E61" s="37" t="s">
+      <c r="E61" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:10">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="F62" s="13"/>
-      <c r="J62" s="50" t="s">
+      <c r="F62" s="14"/>
+      <c r="J62" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" ht="27" spans="1:6">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="E63" s="49" t="s">
+      <c r="E63" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="F63" s="13"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="9" t="s">
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" s="3" customFormat="1" spans="1:6">
+      <c r="A64" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="E64" s="37" t="s">
+      <c r="E64" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="F64" s="13"/>
+      <c r="F64" s="43" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="65" s="3" customFormat="1" spans="1:6">
-      <c r="A65" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="B65" s="39" t="s">
+      <c r="A65" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="B65" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="D65" s="51" t="s">
+      <c r="C65" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="E65" s="52" t="s">
+      <c r="D65" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="F65" s="42"/>
+      <c r="E65" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="F65" s="44"/>
     </row>
     <row r="66" ht="18" customHeight="1" spans="1:6">
-      <c r="A66" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B66" s="10" t="s">
+      <c r="A66" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="B66" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="C66" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="E66" s="37" t="s">
+      <c r="D66" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="F66" s="13"/>
+      <c r="E66" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="F66" s="14"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="B67" s="10" t="s">
+      <c r="A67" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="B67" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="E67" s="37" t="s">
+      <c r="D67" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="F67" s="13"/>
+      <c r="E67" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="F67" s="14"/>
     </row>
     <row r="68" s="5" customFormat="1" spans="1:7">
-      <c r="A68" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="B68" s="54" t="s">
+      <c r="A68" s="56" t="s">
         <v>344</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="B68" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="D68" s="55" t="s">
+      <c r="C68" s="56" t="s">
         <v>346</v>
       </c>
-      <c r="E68" s="56" t="s">
+      <c r="D68" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="F68" s="57" t="s">
+      <c r="E68" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="G68" s="58" t="s">
+      <c r="F68" s="60" t="s">
         <v>349</v>
       </c>
+      <c r="G68" s="61" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B69" s="10" t="s">
+      <c r="A69" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="B69" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="C69" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="E69" s="37" t="s">
+      <c r="D69" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="F69" s="13"/>
+      <c r="E69" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="F69" s="14"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="B70" s="10" t="s">
+      <c r="A70" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="B70" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="E70" s="37" t="s">
+      <c r="D70" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="E70" s="41" t="s">
         <v>360</v>
       </c>
+      <c r="F70" s="14" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="E71" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="F71" s="14"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="E72" s="62" t="s">
+        <v>370</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" spans="1:10">
+      <c r="A73" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="E73" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="F73" s="14"/>
+      <c r="J73" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" ht="16" customHeight="1" spans="1:6">
+      <c r="A74" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D74" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="E74" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="F74" s="14"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="E75" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="F75" s="14"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="E76" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="F76" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="E71" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="F71" s="13"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="E72" s="59" t="s">
-        <v>369</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" spans="1:10">
-      <c r="A73" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="E73" s="60" t="s">
-        <v>375</v>
-      </c>
-      <c r="F73" s="13"/>
-      <c r="J73" s="50" t="s">
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E77" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F77" s="14"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="E78" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="F79" s="14"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="E80" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="F80" s="14"/>
+    </row>
+    <row r="81" s="4" customFormat="1" spans="1:6">
+      <c r="A81" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="B81" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="D81" s="47" t="s">
+        <v>395</v>
+      </c>
+      <c r="E81" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F81" s="49"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="83" s="6" customFormat="1" spans="1:7">
+      <c r="A83" s="65" t="s">
+        <v>422</v>
+      </c>
+      <c r="B83" s="66" t="s">
+        <v>423</v>
+      </c>
+      <c r="C83" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="D83" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="E83" s="68" t="s">
+        <v>426</v>
+      </c>
+      <c r="F83" s="69" t="s">
+        <v>427</v>
+      </c>
+      <c r="G83" s="70" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="85" ht="27" spans="1:10">
+      <c r="A85" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="E85" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="J85" s="52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="74" ht="16" customHeight="1" spans="1:6">
-      <c r="A74" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="D74" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="E74" s="61" t="s">
-        <v>380</v>
-      </c>
-      <c r="F74" s="13"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="E75" s="37" t="s">
-        <v>385</v>
-      </c>
-      <c r="F75" s="13"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="E76" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="E77" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="F77" s="13"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="E78" s="37" t="s">
-        <v>399</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="9" t="s">
+    <row r="86" spans="1:7">
+      <c r="A86" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="E86" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="F86" s="71" t="s">
+        <v>445</v>
+      </c>
+      <c r="G86" s="72" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="87" ht="15" customHeight="1" spans="1:6">
+      <c r="A87" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="D87" s="55" t="s">
+        <v>450</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="F87" s="14"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="89" s="7" customFormat="1" spans="1:6">
+      <c r="A89" s="73"/>
+      <c r="B89" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="C89" s="73"/>
+      <c r="D89" s="75" t="s">
+        <v>459</v>
+      </c>
+      <c r="E89" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="F89" s="76"/>
+    </row>
+    <row r="90" ht="14.25" spans="1:10">
+      <c r="A90" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="E90" s="77" t="s">
+        <v>465</v>
+      </c>
+      <c r="F90" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="E79" s="37" t="s">
-        <v>405</v>
-      </c>
-      <c r="F79" s="13"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="E80" s="37" t="s">
-        <v>410</v>
-      </c>
-      <c r="F80" s="13"/>
-    </row>
-    <row r="81" s="4" customFormat="1" spans="1:6">
-      <c r="A81" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="B81" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="C81" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="D81" s="45" t="s">
-        <v>394</v>
-      </c>
-      <c r="E81" s="46" t="s">
-        <v>414</v>
-      </c>
-      <c r="F81" s="47"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="83" s="6" customFormat="1" spans="1:7">
-      <c r="A83" s="62" t="s">
-        <v>421</v>
-      </c>
-      <c r="B83" s="63" t="s">
-        <v>422</v>
-      </c>
-      <c r="C83" s="62" t="s">
-        <v>423</v>
-      </c>
-      <c r="D83" s="64" t="s">
-        <v>424</v>
-      </c>
-      <c r="E83" s="65" t="s">
-        <v>425</v>
-      </c>
-      <c r="F83" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="G83" s="67" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="85" ht="27" spans="1:10">
-      <c r="A85" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="E85" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="J85" s="50" t="s">
+      <c r="J90" s="52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E86" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="F86" s="68" t="s">
-        <v>444</v>
-      </c>
-      <c r="G86" s="69" t="s">
+    <row r="91" spans="1:6">
+      <c r="A91" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="E91" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" spans="1:10">
+      <c r="A92" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="E92" s="77" t="s">
+        <v>474</v>
+      </c>
+      <c r="F92" s="14"/>
+      <c r="J92" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" spans="1:10">
+      <c r="A93" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E93" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="F93" s="14"/>
+      <c r="J93" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" s="4" customFormat="1" ht="24" customHeight="1" spans="1:6">
+      <c r="A94" s="45" t="s">
+        <v>479</v>
+      </c>
+      <c r="B94" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="C94" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="D94" s="47" t="s">
+        <v>482</v>
+      </c>
+      <c r="E94" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="F94" s="49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" s="4" customFormat="1" ht="108" spans="1:6">
+      <c r="A95" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="B95" s="46" t="s">
+        <v>485</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="D95" s="79" t="s">
+        <v>487</v>
+      </c>
+      <c r="E95" s="78" t="s">
+        <v>488</v>
+      </c>
+      <c r="F95" s="80" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="F96" s="14"/>
+    </row>
+    <row r="97" ht="14.25" spans="1:10">
+      <c r="A97" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="E97" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="F97" s="14"/>
+      <c r="J97" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" s="4" customFormat="1" spans="1:6">
+      <c r="A98" s="45" t="s">
+        <v>500</v>
+      </c>
+      <c r="B98" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="C98" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="D98" s="47" t="s">
+        <v>503</v>
+      </c>
+      <c r="E98" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="F98" s="49"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="D99" s="12"/>
+      <c r="E99" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F100" s="14"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="F101" s="14"/>
+    </row>
+    <row r="102" s="2" customFormat="1" spans="1:7">
+      <c r="A102" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="D102" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="E102" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="F102" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="E103" s="41" t="s">
+        <v>530</v>
+      </c>
+      <c r="F103" s="14"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" spans="1:10">
+      <c r="A105" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="D105" s="81" t="s">
+        <v>539</v>
+      </c>
+      <c r="E105" t="s">
+        <v>540</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="J105" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" spans="1:10">
+      <c r="A106" s="82" t="s">
+        <v>542</v>
+      </c>
+      <c r="B106" s="83" t="s">
+        <v>543</v>
+      </c>
+      <c r="C106" s="82" t="s">
+        <v>544</v>
+      </c>
+      <c r="D106" s="12"/>
+      <c r="E106" s="84" t="s">
+        <v>545</v>
+      </c>
+      <c r="J106" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" spans="1:10">
+      <c r="A107" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B107" s="9">
+        <v>828</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="E107" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="J107" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" s="8" customFormat="1" spans="1:6">
+      <c r="A108" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C108" s="85"/>
+      <c r="E108" s="86" t="s">
+        <v>524</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="109" s="8" customFormat="1" spans="1:6">
+      <c r="A109" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C109" s="85"/>
+      <c r="E109" s="86" t="s">
+        <v>551</v>
+      </c>
+      <c r="F109" s="8" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1" spans="1:6">
-      <c r="A87" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="D87" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="F87" s="13"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" spans="1:10">
-      <c r="A89" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="E89" s="70" t="s">
-        <v>461</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="J89" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="E90" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="91" ht="14.25" spans="1:10">
-      <c r="A91" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="E91" s="70" t="s">
-        <v>470</v>
-      </c>
-      <c r="F91" s="13"/>
-      <c r="J91" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" spans="1:10">
-      <c r="A92" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="E92" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="F92" s="13"/>
-      <c r="J92" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" s="4" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A93" s="43" t="s">
-        <v>475</v>
-      </c>
-      <c r="B93" s="44" t="s">
-        <v>476</v>
-      </c>
-      <c r="C93" s="43" t="s">
-        <v>477</v>
-      </c>
-      <c r="D93" s="45" t="s">
-        <v>478</v>
-      </c>
-      <c r="E93" s="71" t="s">
-        <v>479</v>
-      </c>
-      <c r="F93" s="47" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="94" s="4" customFormat="1" ht="108" spans="1:6">
-      <c r="A94" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="B94" s="44" t="s">
-        <v>481</v>
-      </c>
-      <c r="C94" s="43" t="s">
-        <v>482</v>
-      </c>
-      <c r="D94" s="72" t="s">
-        <v>483</v>
-      </c>
-      <c r="E94" s="71" t="s">
-        <v>484</v>
-      </c>
-      <c r="F94" s="73" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="F95" s="13"/>
-    </row>
-    <row r="96" ht="14.25" spans="1:10">
-      <c r="A96" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E96" s="37" t="s">
-        <v>495</v>
-      </c>
-      <c r="F96" s="13"/>
-      <c r="J96" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" s="4" customFormat="1" spans="1:6">
-      <c r="A97" s="43" t="s">
-        <v>496</v>
-      </c>
-      <c r="B97" s="44" t="s">
-        <v>497</v>
-      </c>
-      <c r="C97" s="43" t="s">
-        <v>498</v>
-      </c>
-      <c r="D97" s="45" t="s">
-        <v>499</v>
-      </c>
-      <c r="E97" s="71" t="s">
-        <v>500</v>
-      </c>
-      <c r="F97" s="47"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="F99" s="13"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="F100" s="13"/>
-    </row>
-    <row r="101" s="2" customFormat="1" spans="1:7">
-      <c r="A101" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="B101" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="D101" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="E101" s="31" t="s">
-        <v>520</v>
-      </c>
-      <c r="F101" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="E102" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="F102" s="13"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="F103" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="104" ht="14.25" spans="1:10">
-      <c r="A104" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="D104" s="74" t="s">
-        <v>535</v>
-      </c>
-      <c r="E104" t="s">
-        <v>536</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="J104" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25" spans="1:10">
-      <c r="A105" s="75" t="s">
-        <v>538</v>
-      </c>
-      <c r="B105" s="76" t="s">
-        <v>539</v>
-      </c>
-      <c r="C105" s="75" t="s">
-        <v>540</v>
-      </c>
-      <c r="D105" s="11"/>
-      <c r="E105" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="J105" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" ht="14.25" spans="1:10">
-      <c r="A106" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="B106" s="8">
-        <v>828</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="E106" s="69" t="s">
-        <v>276</v>
-      </c>
-      <c r="J106" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" s="7" customFormat="1" spans="1:6">
-      <c r="A107" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="C107" s="78"/>
-      <c r="E107" s="79" t="s">
-        <v>520</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="108" s="7" customFormat="1" spans="1:6">
-      <c r="A108" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="C108" s="78"/>
-      <c r="E108" s="79" t="s">
-        <v>546</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="109" s="7" customFormat="1" spans="1:6">
-      <c r="A109" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="B109" s="78">
+    <row r="110" s="8" customFormat="1" spans="1:6">
+      <c r="A110" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B110" s="85">
         <v>50</v>
       </c>
-      <c r="C109" s="78"/>
-      <c r="E109" s="79" t="s">
-        <v>548</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="110" s="7" customFormat="1" spans="1:6">
-      <c r="A110" s="7" t="s">
+      <c r="C110" s="85"/>
+      <c r="E110" s="86" t="s">
+        <v>553</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="111" s="8" customFormat="1" spans="1:6">
+      <c r="A111" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B111" s="8">
         <v>61</v>
       </c>
-      <c r="C110" s="78"/>
-      <c r="E110" s="7" t="s">
+      <c r="C111" s="85"/>
+      <c r="E111" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="F111" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="F110" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="112" spans="4:4">
-      <c r="D112" s="8"/>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5945,19 +6005,19 @@
     <hyperlink ref="E86" r:id="rId71" display="http://tang.cs-air.com/EN/WebFace/Tang.WebFace.Cargo/AgentAwbBrower.aspx" tooltip="http://tang.cs-air.com/EN/WebFace/Tang.WebFace.Cargo/AgentAwbBrower.aspx"/>
     <hyperlink ref="E87" r:id="rId72" display="https://accs.tradevan.com.tw/accsw-bin/APACCS/userLoginAction.do?userid=GUEST&amp;password=GUEST" tooltip="https://accs.tradevan.com.tw/accsw-bin/APACCS/userLoginAction.do?userid=GUEST&amp;password=GUEST"/>
     <hyperlink ref="E88" r:id="rId73" display="https://cargo.china-airlines.com/ccnetv2/content/manage/ShipmentTracking.aspx" tooltip="https://cargo.china-airlines.com/ccnetv2/content/manage/ShipmentTracking.aspx"/>
-    <hyperlink ref="E90" r:id="rId74" display="http://gs.hnacargo.com/Portal/Default.aspx" tooltip="http://gs.hnacargo.com/Portal/Default.aspx"/>
-    <hyperlink ref="E91" r:id="rId75" display="https://airasia.smartkargo.com/FrmAWBTracking.aspx?AWBPrefix=843&amp;AWBNo=//" tooltip="https://airasia.smartkargo.com/FrmAWBTracking.aspx?AWBPrefix=843&amp;AWBNo=//"/>
-    <hyperlink ref="E93" r:id="rId76" display="http://www.tradevision.net/appl/fsr.asp?Owner=RES-AEW&amp;Lng=&amp;Doc=/appl/fsr.asp&amp;Func=" tooltip="http://www.tradevision.net/appl/fsr.asp?Owner=RES-AEW&amp;Lng=&amp;Doc=/appl/fsr.asp&amp;Func="/>
-    <hyperlink ref="E94" r:id="rId77" display="http://cargoitran.yzr.com.cn/SearchFlight/QueryAWB.aspx?Pre=871&amp;No=11453492" tooltip="http://cargoitran.yzr.com.cn/SearchFlight/QueryAWB.aspx?Pre=871&amp;No=11453492"/>
-    <hyperlink ref="E95" r:id="rId78" display="http://cargo.sichuanair.com:8000/EN/WebFace/Tang.WebFace.Cargo/AgentAwbBrower.aspx?awbprefix=876&amp;awbno=84712983&amp;menuid=1&amp;lan=en-us" tooltip="http://cargo.sichuanair.com:8000/EN/WebFace/Tang.WebFace.Cargo/AgentAwbBrower.aspx?awbprefix=876&amp;awbno=84712983&amp;menuid=1&amp;lan=en-us"/>
-    <hyperlink ref="E96" r:id="rId79" display="http://www.hnacargo.com/Portal2/AwbSearch.aspx" tooltip="http://www.hnacargo.com/Portal2/AwbSearch.aspx"/>
-    <hyperlink ref="E97" r:id="rId80" display="https://www.bangkokflightservices.com/m/tt/tt_web.php?stype=web&amp;m_prefix=900&amp;m_sn=02181141&amp;h_prefix=HWB&amp;h_sn=" tooltip="https://www.bangkokflightservices.com/m/tt/tt_web.php?stype=web&amp;m_prefix=900&amp;m_sn=02181141&amp;h_prefix=HWB&amp;h_sn="/>
-    <hyperlink ref="E98" r:id="rId81" display="http://www.xiact.com/" tooltip="http://www.xiact.com/"/>
-    <hyperlink ref="E99" r:id="rId82" display="http://cargo.virgin-atlantic.com/gb/en/index.html" tooltip="http://cargo.virgin-atlantic.com/gb/en/index.html"/>
-    <hyperlink ref="E100" r:id="rId83" display="http://www.nca.aero/e/index.html" tooltip="http://www.nca.aero/e/index.html"/>
-    <hyperlink ref="E101" r:id="rId84" display="http://www.datacair.com/tracktrace/index.php" tooltip="http://www.datacair.com/tracktrace/index.php"/>
-    <hyperlink ref="E102" r:id="rId85" display="http://www.asianacargo.com/Cn" tooltip="http://www.asianacargo.com/Cn"/>
-    <hyperlink ref="E103" r:id="rId86" display="http://www.cargoserv.com/tracking.asp?Carrier=BG&amp;Pfx=997" tooltip="http://www.cargoserv.com/tracking.asp?Carrier=BG&amp;Pfx=997"/>
+    <hyperlink ref="E91" r:id="rId74" display="http://gs.hnacargo.com/Portal/Default.aspx" tooltip="http://gs.hnacargo.com/Portal/Default.aspx"/>
+    <hyperlink ref="E92" r:id="rId75" display="https://airasia.smartkargo.com/FrmAWBTracking.aspx?AWBPrefix=843&amp;AWBNo=//" tooltip="https://airasia.smartkargo.com/FrmAWBTracking.aspx?AWBPrefix=843&amp;AWBNo=//"/>
+    <hyperlink ref="E94" r:id="rId76" display="http://www.tradevision.net/appl/fsr.asp?Owner=RES-AEW&amp;Lng=&amp;Doc=/appl/fsr.asp&amp;Func=" tooltip="http://www.tradevision.net/appl/fsr.asp?Owner=RES-AEW&amp;Lng=&amp;Doc=/appl/fsr.asp&amp;Func="/>
+    <hyperlink ref="E95" r:id="rId77" display="http://cargoitran.yzr.com.cn/SearchFlight/QueryAWB.aspx?Pre=871&amp;No=11453492" tooltip="http://cargoitran.yzr.com.cn/SearchFlight/QueryAWB.aspx?Pre=871&amp;No=11453492"/>
+    <hyperlink ref="E96" r:id="rId78" display="http://cargo.sichuanair.com:8000/EN/WebFace/Tang.WebFace.Cargo/AgentAwbBrower.aspx?awbprefix=876&amp;awbno=84712983&amp;menuid=1&amp;lan=en-us" tooltip="http://cargo.sichuanair.com:8000/EN/WebFace/Tang.WebFace.Cargo/AgentAwbBrower.aspx?awbprefix=876&amp;awbno=84712983&amp;menuid=1&amp;lan=en-us"/>
+    <hyperlink ref="E97" r:id="rId79" display="http://www.hnacargo.com/Portal2/AwbSearch.aspx" tooltip="http://www.hnacargo.com/Portal2/AwbSearch.aspx"/>
+    <hyperlink ref="E98" r:id="rId80" display="https://www.bangkokflightservices.com/m/tt/tt_web.php?stype=web&amp;m_prefix=900&amp;m_sn=02181141&amp;h_prefix=HWB&amp;h_sn=" tooltip="https://www.bangkokflightservices.com/m/tt/tt_web.php?stype=web&amp;m_prefix=900&amp;m_sn=02181141&amp;h_prefix=HWB&amp;h_sn="/>
+    <hyperlink ref="E99" r:id="rId81" display="http://www.xiact.com/" tooltip="http://www.xiact.com/"/>
+    <hyperlink ref="E100" r:id="rId82" display="http://cargo.virgin-atlantic.com/gb/en/index.html" tooltip="http://cargo.virgin-atlantic.com/gb/en/index.html"/>
+    <hyperlink ref="E101" r:id="rId83" display="http://www.nca.aero/e/index.html" tooltip="http://www.nca.aero/e/index.html"/>
+    <hyperlink ref="E102" r:id="rId84" display="http://www.datacair.com/tracktrace/index.php" tooltip="http://www.datacair.com/tracktrace/index.php"/>
+    <hyperlink ref="E103" r:id="rId85" display="http://www.asianacargo.com/Cn" tooltip="http://www.asianacargo.com/Cn"/>
+    <hyperlink ref="E104" r:id="rId86" display="http://www.cargoserv.com/tracking.asp?Carrier=BG&amp;Pfx=997" tooltip="http://www.cargoserv.com/tracking.asp?Carrier=BG&amp;Pfx=997"/>
     <hyperlink ref="E2" r:id="rId87" display="https://www.aacargo.com/AACargo/tracking" tooltip="https://www.aacargo.com/AACargo/tracking"/>
     <hyperlink ref="E13" r:id="rId88" display="https://www.skyteam.com/zh/cargo/" tooltip="https://www.skyteam.com/zh/cargo/"/>
     <hyperlink ref="E14" r:id="rId89" display="https://www.afklcargo.com/mycargo/shipment/singlesearch" tooltip="https://www.afklcargo.com/mycargo/shipment/singlesearch"/>
@@ -5965,23 +6025,25 @@
     <hyperlink ref="E28" r:id="rId90" display="https://prdcgoay.mercator.com/skychain/app?service=page/nwp:Trackshipmt" tooltip="https://prdcgoay.mercator.com/skychain/app?service=page/nwp:Trackshipmt"/>
     <hyperlink ref="E46" r:id="rId91" display="https://www.cargolux.com/maintenance/Our-Expertise" tooltip="https://www.cargolux.com/maintenance/Our-Expertise"/>
     <hyperlink ref="E37" r:id="rId9" display="https://www.iagcargo.com/en/home"/>
-    <hyperlink ref="E105" r:id="rId92" display="https://www.cargoupdate.com/tracktrace/" tooltip="https://www.cargoupdate.com/tracktrace/"/>
+    <hyperlink ref="E106" r:id="rId92" display="https://www.cargoupdate.com/tracktrace/" tooltip="https://www.cargoupdate.com/tracktrace/"/>
     <hyperlink ref="F55" r:id="rId93" display="https://copa.smartkargo.com/FrmAWBTracking.aspx&#10;跳转链接需要更改"/>
-    <hyperlink ref="E89" r:id="rId94" display="https://airasia.smartkargo.com/FrmAWBTracking.aspx?AWBPrefix=807&amp;AWBNo=//" tooltip="https://airasia.smartkargo.com/FrmAWBTracking.aspx?AWBPrefix=807&amp;AWBNo=//"/>
+    <hyperlink ref="E90" r:id="rId94" display="https://airasia.smartkargo.com/FrmAWBTracking.aspx?AWBPrefix=807&amp;AWBNo=//" tooltip="https://airasia.smartkargo.com/FrmAWBTracking.aspx?AWBPrefix=807&amp;AWBNo=//"/>
     <hyperlink ref="E73" r:id="rId95" display="http://www.srilankanskychain.aero/skychain/app?service=page/nwp:Trackshipmt" tooltip="http://www.srilankanskychain.aero/skychain/app?service=page/nwp:Trackshipmt"/>
     <hyperlink ref="E18" r:id="rId96" display="https://cargo.ethiopianairlines.com/TrackCargo  " tooltip="https://cargo.ethiopianairlines.com/TrackCargo  "/>
-    <hyperlink ref="E104" r:id="rId97" display="公共查询地址：http://efreight.cn/services/mawb/index.html?mawb=99955244722&amp;action=undefined" tooltip="http://efreight.cn/services/mawb/index.html?mawb=99955244722&amp;action=undefined"/>
-    <hyperlink ref="D104" r:id="rId98" display="http://www.airchinacargo.com/search_order.php  "/>
+    <hyperlink ref="E105" r:id="rId97" display="公共查询地址：http://efreight.cn/services/mawb/index.html?mawb=99955244722&amp;action=undefined" tooltip="http://efreight.cn/services/mawb/index.html?mawb=99955244722&amp;action=undefined"/>
+    <hyperlink ref="D105" r:id="rId98" display="http://www.airchinacargo.com/search_order.php  "/>
     <hyperlink ref="E5" r:id="rId99" display="https://www.unitedcargo.com/"/>
-    <hyperlink ref="E92" r:id="rId42" display="https://www.hkaircargo.com/sc/"/>
-    <hyperlink ref="E106" r:id="rId42" display="https://www.hkaircargo.com/sc/" tooltip="https://www.hkaircargo.com/sc/"/>
-    <hyperlink ref="E107" r:id="rId84" display="http://www.datacair.com/tracktrace/index.php"/>
-    <hyperlink ref="E108" r:id="rId100" display="http://cargo.juneyaoair.com/#" tooltip="http://cargo.juneyaoair.com/#"/>
-    <hyperlink ref="E109" r:id="rId101" display="https://www.olympicair.com/en/Info/Cargo" tooltip="https://www.olympicair.com/en/Info/Cargo"/>
+    <hyperlink ref="E93" r:id="rId42" display="https://www.hkaircargo.com/sc/"/>
+    <hyperlink ref="E107" r:id="rId42" display="https://www.hkaircargo.com/sc/" tooltip="https://www.hkaircargo.com/sc/"/>
+    <hyperlink ref="E108" r:id="rId84" display="http://www.datacair.com/tracktrace/index.php"/>
+    <hyperlink ref="E109" r:id="rId100" display="http://cargo.juneyaoair.com/#" tooltip="http://cargo.juneyaoair.com/#"/>
+    <hyperlink ref="E110" r:id="rId101" display="https://www.olympicair.com/en/Info/Cargo" tooltip="https://www.olympicair.com/en/Info/Cargo"/>
     <hyperlink ref="G83" r:id="rId102" display="https://cargo.xiamenair.com/Cargo/English/Search.html"/>
     <hyperlink ref="G10" r:id="rId103" display="http://cargo.aerolineas.com.ar/" tooltip="http://cargo.aerolineas.com.ar/"/>
     <hyperlink ref="G68" r:id="rId104" display="http://www.silkwaywest.com/"/>
     <hyperlink ref="G86" r:id="rId105" display="http://tang.csair.com/EN/WebFace/Tang.WebFace.Cargo/AgentAwbBrower.aspx?lan=en-us"/>
+    <hyperlink ref="E89" r:id="rId106" display="https://www.mercuryamericas.com/tracking.html" tooltip="https://www.mercuryamericas.com/tracking.html"/>
+    <hyperlink ref="F64" r:id="rId107" display="修改链接  https://en.about.aegeanair.com/company/services/cargo/" tooltip="https://en.about.aegeanair.com/company/services/cargo/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/空运最新链接.xlsx
+++ b/空运最新链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28305" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="556">
   <si>
     <t>AA</t>
   </si>
@@ -2435,6 +2435,9 @@
   </si>
   <si>
     <t>香港货运航空</t>
+  </si>
+  <si>
+    <t>未添加 重新添加</t>
   </si>
   <si>
     <t>GY</t>
@@ -2554,12 +2557,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2568,58 +2572,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2627,21 +2580,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2658,10 +2602,70 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2673,11 +2677,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2731,13 +2734,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2755,7 +2776,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2767,73 +2878,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2845,67 +2902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2916,69 +2919,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3002,6 +2942,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3016,6 +2995,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3024,10 +3027,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3036,16 +3039,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3057,112 +3060,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3788,8 +3791,8 @@
   <sheetPr/>
   <dimension ref="A2:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C94" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5619,7 +5622,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" s="4" customFormat="1" ht="108" spans="1:6">
+    <row r="95" s="4" customFormat="1" ht="27" spans="1:6">
       <c r="A95" s="45" t="s">
         <v>484</v>
       </c>
@@ -5865,29 +5868,32 @@
       <c r="E107" s="72" t="s">
         <v>276</v>
       </c>
+      <c r="F107" t="s">
+        <v>548</v>
+      </c>
       <c r="J107" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="108" s="8" customFormat="1" spans="1:6">
       <c r="A108" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C108" s="85"/>
       <c r="E108" s="86" t="s">
         <v>524</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="109" s="8" customFormat="1" spans="1:6">
       <c r="A109" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C109" s="85"/>
       <c r="E109" s="86" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>445</v>
@@ -5895,17 +5901,17 @@
     </row>
     <row r="110" s="8" customFormat="1" spans="1:6">
       <c r="A110" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B110" s="85">
         <v>50</v>
       </c>
       <c r="C110" s="85"/>
       <c r="E110" s="86" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="111" s="8" customFormat="1" spans="1:6">
@@ -5917,10 +5923,10 @@
       </c>
       <c r="C111" s="85"/>
       <c r="E111" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="113" spans="4:4">
